--- a/Sample Prediction Model Data_19022020.xlsx
+++ b/Sample Prediction Model Data_19022020.xlsx
@@ -1,28 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tcdud-my.sharepoint.com/personal/neverinm_tcd_ie/Documents/Doc Upload 2/Electronic Patient Record/Gaye Stephens/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidscolard/Desktop/my-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{358BE98B-19EB-42FC-91D8-31969A9216CA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518AE843-77B5-A045-BE5F-DB46CCFF634E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="750" yWindow="750" windowWidth="15330" windowHeight="10890"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="clinical_data" sheetId="1" r:id="rId1"/>
     <sheet name="Clinical Visit Data" sheetId="3" r:id="rId2"/>
     <sheet name="Variable Descriptors" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="124">
   <si>
     <t>DOB</t>
   </si>
@@ -391,13 +401,16 @@
   </si>
   <si>
     <t>Does the patient have dementia?</t>
+  </si>
+  <si>
+    <t>Patient</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -541,6 +554,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -887,7 +908,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -904,6 +925,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1258,53 +1281,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="D1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="8" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -1316,14 +1339,14 @@
       <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>79</v>
       </c>
@@ -1364,7 +1387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>80</v>
       </c>
@@ -1405,7 +1428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>81</v>
       </c>
@@ -1437,7 +1460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>82</v>
       </c>
@@ -1478,7 +1501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>83</v>
       </c>
@@ -1519,7 +1542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>84</v>
       </c>
@@ -1560,7 +1583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>85</v>
       </c>
@@ -1601,7 +1624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -1642,7 +1665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -1674,7 +1697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -1715,7 +1738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>89</v>
       </c>
@@ -1744,7 +1767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>90</v>
       </c>
@@ -1785,7 +1808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>91</v>
       </c>
@@ -1826,7 +1849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>92</v>
       </c>
@@ -1855,7 +1878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>93</v>
       </c>
@@ -1895,19 +1918,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S39" sqref="S39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="6" max="6" width="7.83203125" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" customWidth="1"/>
+    <col min="8" max="8" width="8.1640625" customWidth="1"/>
+    <col min="9" max="9" width="7" customWidth="1"/>
+    <col min="10" max="11" width="6.6640625" customWidth="1"/>
+    <col min="12" max="15" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>123</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1917,7 +1951,7 @@
       <c r="D1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="9" t="s">
         <v>37</v>
       </c>
       <c r="F1" t="s">
@@ -1959,11 +1993,11 @@
       <c r="R1" t="s">
         <v>35</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>79</v>
       </c>
@@ -1974,7 +2008,7 @@
         <v>39679</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>79</v>
       </c>
@@ -2024,7 +2058,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>79</v>
       </c>
@@ -2038,7 +2072,7 @@
         <v>40955</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -2052,7 +2086,7 @@
         <v>38483</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>80</v>
       </c>
@@ -2069,7 +2103,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>80</v>
       </c>
@@ -2083,7 +2117,7 @@
         <v>38568</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>80</v>
       </c>
@@ -2097,7 +2131,7 @@
         <v>38813</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>81</v>
       </c>
@@ -2111,7 +2145,7 @@
         <v>36831</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -2122,7 +2156,7 @@
         <v>40848</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>81</v>
       </c>
@@ -2133,7 +2167,7 @@
         <v>42065</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>82</v>
       </c>
@@ -2147,7 +2181,7 @@
         <v>36911</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -2161,7 +2195,7 @@
         <v>41284</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>83</v>
       </c>
@@ -2214,7 +2248,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -2267,7 +2301,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>83</v>
       </c>
@@ -2281,7 +2315,7 @@
         <v>41375</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>84</v>
       </c>
@@ -2337,7 +2371,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>84</v>
       </c>
@@ -2393,7 +2427,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>84</v>
       </c>
@@ -2449,7 +2483,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>84</v>
       </c>
@@ -2463,7 +2497,7 @@
         <v>42047</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>85</v>
       </c>
@@ -2519,7 +2553,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>85</v>
       </c>
@@ -2533,7 +2567,7 @@
         <v>41808</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>85</v>
       </c>
@@ -2589,7 +2623,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>86</v>
       </c>
@@ -2645,7 +2679,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>86</v>
       </c>
@@ -2701,7 +2735,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>86</v>
       </c>
@@ -2715,7 +2749,7 @@
         <v>41907</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>86</v>
       </c>
@@ -2771,7 +2805,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>86</v>
       </c>
@@ -2821,7 +2855,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>86</v>
       </c>
@@ -2877,7 +2911,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>86</v>
       </c>
@@ -2891,7 +2925,7 @@
         <v>42075</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>86</v>
       </c>
@@ -2947,7 +2981,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>86</v>
       </c>
@@ -3003,7 +3037,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>86</v>
       </c>
@@ -3017,7 +3051,7 @@
         <v>42257</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>86</v>
       </c>
@@ -3073,7 +3107,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>86</v>
       </c>
@@ -3129,7 +3163,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>86</v>
       </c>
@@ -3185,7 +3219,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>86</v>
       </c>
@@ -3241,7 +3275,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>86</v>
       </c>
@@ -3255,7 +3289,7 @@
         <v>42698</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>87</v>
       </c>
@@ -3311,7 +3345,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>87</v>
       </c>
@@ -3325,7 +3359,7 @@
         <v>41837</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>87</v>
       </c>
@@ -3378,7 +3412,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>87</v>
       </c>
@@ -3434,7 +3468,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>87</v>
       </c>
@@ -3484,7 +3518,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>87</v>
       </c>
@@ -3540,7 +3574,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>87</v>
       </c>
@@ -3596,7 +3630,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>87</v>
       </c>
@@ -3607,7 +3641,7 @@
         <v>42170</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>87</v>
       </c>
@@ -3663,7 +3697,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>87</v>
       </c>
@@ -3719,7 +3753,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>87</v>
       </c>
@@ -3775,7 +3809,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>87</v>
       </c>
@@ -3831,7 +3865,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>87</v>
       </c>
@@ -3845,7 +3879,7 @@
         <v>42719</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>87</v>
       </c>
@@ -3859,7 +3893,7 @@
         <v>42845</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>87</v>
       </c>
@@ -3873,7 +3907,7 @@
         <v>42971</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>87</v>
       </c>
@@ -3887,7 +3921,7 @@
         <v>43265</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>88</v>
       </c>
@@ -3943,7 +3977,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>88</v>
       </c>
@@ -3999,7 +4033,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>88</v>
       </c>
@@ -4013,7 +4047,7 @@
         <v>41851</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>88</v>
       </c>
@@ -4069,7 +4103,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>88</v>
       </c>
@@ -4125,7 +4159,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>88</v>
       </c>
@@ -4181,7 +4215,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>88</v>
       </c>
@@ -4192,7 +4226,7 @@
         <v>42046</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>88</v>
       </c>
@@ -4248,7 +4282,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>88</v>
       </c>
@@ -4301,7 +4335,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>89</v>
       </c>
@@ -4357,7 +4391,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>89</v>
       </c>
@@ -4371,7 +4405,7 @@
         <v>42775</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>89</v>
       </c>
@@ -4385,7 +4419,7 @@
         <v>42880</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>89</v>
       </c>
@@ -4399,7 +4433,7 @@
         <v>42992</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>89</v>
       </c>
@@ -4413,7 +4447,7 @@
         <v>43118</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>89</v>
       </c>
@@ -4427,7 +4461,7 @@
         <v>43237</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>89</v>
       </c>
@@ -4441,7 +4475,7 @@
         <v>43300</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>89</v>
       </c>
@@ -4455,7 +4489,7 @@
         <v>43552</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>89</v>
       </c>
@@ -4469,7 +4503,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>90</v>
       </c>
@@ -4525,7 +4559,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>90</v>
       </c>
@@ -4539,7 +4573,7 @@
         <v>42782</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>90</v>
       </c>
@@ -4553,7 +4587,7 @@
         <v>42880</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>91</v>
       </c>
@@ -4567,7 +4601,7 @@
         <v>42726</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>91</v>
       </c>
@@ -4581,7 +4615,7 @@
         <v>42775</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>91</v>
       </c>
@@ -4595,7 +4629,7 @@
         <v>42803</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>92</v>
       </c>
@@ -4609,7 +4643,7 @@
         <v>42726</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>92</v>
       </c>
@@ -4623,7 +4657,7 @@
         <v>42782</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>92</v>
       </c>
@@ -4637,7 +4671,7 @@
         <v>42915</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>92</v>
       </c>
@@ -4651,7 +4685,7 @@
         <v>42999</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>92</v>
       </c>
@@ -4665,7 +4699,7 @@
         <v>43174</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>92</v>
       </c>
@@ -4679,7 +4713,7 @@
         <v>43398</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>93</v>
       </c>
@@ -4693,7 +4727,7 @@
         <v>42726</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>93</v>
       </c>
@@ -4707,7 +4741,7 @@
         <v>42754</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>93</v>
       </c>
@@ -4721,7 +4755,7 @@
         <v>42845</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>93</v>
       </c>
@@ -4735,7 +4769,7 @@
         <v>42929</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>93</v>
       </c>
@@ -4791,7 +4825,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>93</v>
       </c>
@@ -4847,7 +4881,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>93</v>
       </c>
@@ -4903,7 +4937,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>93</v>
       </c>
@@ -4920,19 +4954,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="23.1640625" customWidth="1"/>
+    <col min="2" max="2" width="35.5" customWidth="1"/>
+    <col min="3" max="3" width="32.83203125" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="22.1640625" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" customWidth="1"/>
+    <col min="7" max="7" width="44.5" customWidth="1"/>
+    <col min="8" max="8" width="18.1640625" customWidth="1"/>
+    <col min="9" max="9" width="25.83203125" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>38</v>
       </c>
@@ -4964,7 +5007,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -4987,7 +5030,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -5013,7 +5056,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -5039,7 +5082,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -5062,7 +5105,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>56</v>
       </c>
@@ -5085,7 +5128,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>56</v>
       </c>
@@ -5108,7 +5151,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>56</v>
       </c>
@@ -5131,7 +5174,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -5154,7 +5197,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -5177,7 +5220,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -5200,7 +5243,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>119</v>
       </c>
@@ -5223,7 +5266,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>94</v>
       </c>
@@ -5249,7 +5292,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>94</v>
       </c>
@@ -5272,7 +5315,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>94</v>
       </c>
@@ -5295,7 +5338,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>94</v>
       </c>
@@ -5318,7 +5361,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>94</v>
       </c>
@@ -5341,7 +5384,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>94</v>
       </c>
@@ -5364,7 +5407,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>94</v>
       </c>
@@ -5387,7 +5430,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>94</v>
       </c>
@@ -5408,7 +5451,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>94</v>
       </c>
@@ -5431,7 +5474,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>94</v>
       </c>
@@ -5454,7 +5497,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>94</v>
       </c>
@@ -5477,7 +5520,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>94</v>
       </c>
@@ -5500,7 +5543,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>94</v>
       </c>
@@ -5523,7 +5566,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>94</v>
       </c>
@@ -5546,7 +5589,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>94</v>
       </c>
@@ -5569,7 +5612,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>94</v>
       </c>
@@ -5592,7 +5635,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>94</v>
       </c>
@@ -5615,7 +5658,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>94</v>
       </c>

--- a/Sample Prediction Model Data_19022020.xlsx
+++ b/Sample Prediction Model Data_19022020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidscolard/Desktop/my-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518AE843-77B5-A045-BE5F-DB46CCFF634E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E770BC-30F6-7949-9634-6507B3E6FFFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="clinical_data" sheetId="1" r:id="rId1"/>
@@ -1922,14 +1922,14 @@
   <dimension ref="A1:S92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S39" sqref="S39"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="4" max="4" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" customWidth="1"/>
     <col min="6" max="6" width="7.83203125" customWidth="1"/>
     <col min="7" max="7" width="7.33203125" customWidth="1"/>
     <col min="8" max="8" width="8.1640625" customWidth="1"/>
@@ -4958,21 +4958,21 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.1640625" customWidth="1"/>
-    <col min="2" max="2" width="35.5" customWidth="1"/>
-    <col min="3" max="3" width="32.83203125" customWidth="1"/>
-    <col min="4" max="4" width="20.5" customWidth="1"/>
-    <col min="5" max="5" width="22.1640625" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" customWidth="1"/>
-    <col min="7" max="7" width="44.5" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="33.5" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" customWidth="1"/>
+    <col min="5" max="5" width="29.5" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" customWidth="1"/>
+    <col min="7" max="7" width="22.1640625" customWidth="1"/>
     <col min="8" max="8" width="18.1640625" customWidth="1"/>
-    <col min="9" max="9" width="25.83203125" customWidth="1"/>
-    <col min="10" max="10" width="14.1640625" customWidth="1"/>
+    <col min="9" max="9" width="18.83203125" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5685,6 +5685,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010004DF67CFDE8C5D45B894E976AF8D9EC1" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="72582c2acdec82141739c52e72f4dfc5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="37a153f4-9ec4-4382-a212-68045e5c4242" xmlns:ns4="a9c8593a-8adc-4031-8aee-2c7f39875d64" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d44ddeda4b133f6ffb03132cefe4ae65" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5924,25 +5942,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{146DCA0B-6030-4C87-9593-6972991EDCA4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E09ED7E0-4F2F-4146-AAA7-FDE20F67125C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a9c8593a-8adc-4031-8aee-2c7f39875d64"/>
+    <ds:schemaRef ds:uri="37a153f4-9ec4-4382-a212-68045e5c4242"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C0D0993-C063-4A30-AE1E-2F60A167C908}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5960,30 +5986,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{146DCA0B-6030-4C87-9593-6972991EDCA4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E09ED7E0-4F2F-4146-AAA7-FDE20F67125C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a9c8593a-8adc-4031-8aee-2c7f39875d64"/>
-    <ds:schemaRef ds:uri="37a153f4-9ec4-4382-a212-68045e5c4242"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>